--- a/data/trans_dic/P56$familiarvive-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiarvive-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que, al menos, le ayudaun familiar conviviente cuando tiene dificultades en la actividades básicas</t>
+          <t>Población a la que, al menos, le ayuda un familiar conviviente cuando tiene dificultades en la actividades básicas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,12 +730,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,36</t>
+          <t>0,0; 58,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,84</t>
+          <t>0,0; 41,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,44 +750,44 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 42,05</t>
+          <t>5,37; 40,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,75</t>
+          <t>0,0; 37,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 40,69</t>
+          <t>4,44; 43,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,55</t>
+          <t>0,0; 74,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 34,96</t>
+          <t>4,08; 32,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 26,66</t>
+          <t>2,78; 28,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 30,74</t>
+          <t>2,89; 27,84</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,5</t>
+          <t>0,0; 71,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,62</t>
+          <t>0,0; 39,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,71; 85,54</t>
+          <t>12,31; 85,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 57,97</t>
+          <t>7,21; 57,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,9; 62,7</t>
+          <t>13,76; 64,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,39; 63,99</t>
+          <t>28,82; 61,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,04; 72,02</t>
+          <t>16,24; 72,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,35; 44,13</t>
+          <t>20,98; 43,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,29; 58,62</t>
+          <t>15,06; 57,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,25; 50,93</t>
+          <t>22,14; 52,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,37; 69,43</t>
+          <t>21,27; 67,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,41; 41,14</t>
+          <t>20,8; 41,38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1009,57 +1010,57 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,59</t>
+          <t>0,0; 49,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,99</t>
+          <t>0,0; 71,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 26,76</t>
+          <t>2,63; 27,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,23; 81,49</t>
+          <t>22,22; 81,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 45,16</t>
+          <t>5,68; 45,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,59; 86,66</t>
+          <t>10,8; 79,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,82; 37,35</t>
+          <t>15,8; 37,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,5; 77,65</t>
+          <t>22,94; 76,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 38,41</t>
+          <t>7,47; 39,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,92; 65,36</t>
+          <t>16,66; 65,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,27; 28,36</t>
+          <t>13,35; 29,37</t>
         </is>
       </c>
     </row>
@@ -1149,12 +1150,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,48</t>
+          <t>0,0; 60,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,26</t>
+          <t>0,0; 49,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,42 +1165,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,86</t>
+          <t>0,0; 52,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,14; 47,51</t>
+          <t>9,21; 47,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,6</t>
+          <t>4,63; 36,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 22,12</t>
+          <t>3,86; 20,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,88; 59,17</t>
+          <t>8,03; 56,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 37,55</t>
+          <t>9,75; 40,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,47; 35,89</t>
+          <t>6,14; 34,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 14,25</t>
+          <t>2,67; 15,36</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1290,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,73</t>
+          <t>0,0; 82,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,54 +1300,54 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,73</t>
+          <t>0,0; 30,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,34; 87,65</t>
+          <t>13,27; 87,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,38; 64,09</t>
+          <t>20,52; 63,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,18</t>
+          <t>0,0; 54,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,63; 28,64</t>
+          <t>6,47; 28,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,23; 66,53</t>
+          <t>9,24; 66,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,87; 59,61</t>
+          <t>23,14; 62,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,07; 55,88</t>
+          <t>6,15; 56,79</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,75; 23,04</t>
+          <t>6,0; 22,6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1434,59 +1435,59 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,14; 52,53</t>
+          <t>7,03; 51,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,43; 23,14</t>
+          <t>2,62; 23,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,63; 81,29</t>
+          <t>12,46; 80,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,34; 37,65</t>
+          <t>5,35; 37,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,05; 54,65</t>
+          <t>10,47; 53,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,9; 20,9</t>
+          <t>6,3; 20,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,83; 78,06</t>
+          <t>21,44; 79,05</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,53; 30,84</t>
+          <t>3,52; 27,94</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,84; 46,71</t>
+          <t>12,48; 44,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,05; 18,22</t>
+          <t>7,07; 18,12</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,22 +1565,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,46</t>
+          <t>0,0; 67,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,29; 60,19</t>
+          <t>5,88; 59,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,59</t>
+          <t>0,0; 27,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,95</t>
+          <t>0,0; 32,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,37 +1590,37 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,56; 44,48</t>
+          <t>11,94; 44,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,15; 45,44</t>
+          <t>14,14; 45,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,62; 30,05</t>
+          <t>11,4; 29,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,05; 64,9</t>
+          <t>10,09; 68,59</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,78; 41,7</t>
+          <t>15,18; 43,27</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,47; 32,27</t>
+          <t>10,37; 32,35</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,73; 27,63</t>
+          <t>10,69; 27,71</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,85</t>
+          <t>0,0; 30,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,35; 88,43</t>
+          <t>13,44; 87,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,41</t>
+          <t>0,0; 45,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,86; 37,35</t>
+          <t>8,75; 37,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,79; 58,79</t>
+          <t>20,04; 56,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,62; 43,93</t>
+          <t>10,54; 43,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,36; 54,98</t>
+          <t>15,11; 58,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,86; 33,7</t>
+          <t>16,75; 33,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,93; 40,42</t>
+          <t>15,26; 41,53</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>16,84; 49,05</t>
+          <t>16,8; 48,96</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>11,44; 43,24</t>
+          <t>10,17; 43,6</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>16,78; 31,4</t>
+          <t>17,48; 31,01</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,48; 31,14</t>
+          <t>9,93; 31,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,89; 31,0</t>
+          <t>12,0; 32,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,32; 25,96</t>
+          <t>10,08; 27,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,56; 19,58</t>
+          <t>8,79; 19,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>30,27; 51,76</t>
+          <t>30,8; 51,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,16; 35,12</t>
+          <t>21,88; 34,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>19,62; 34,6</t>
+          <t>19,26; 34,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18,2; 25,57</t>
+          <t>18,19; 25,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>26,23; 41,11</t>
+          <t>25,87; 41,88</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19,94; 31,68</t>
+          <t>20,36; 31,59</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>18,57; 29,98</t>
+          <t>18,0; 29,82</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>16,21; 22,24</t>
+          <t>16,2; 22,32</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda un familiar conviviente cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1045</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3446</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2248</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1418</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3050</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1418</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1276</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4124</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4115</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1169</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2400</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1141; 8508</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6881</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>365; 3563</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4381</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1153; 9075</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>787; 8167</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>383; 3691</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2641</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3494</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5471</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>16539</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7593</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13090</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7484</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17601</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>10234</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16583</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4948</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4668</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>675; 4695</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>879; 6960</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2024; 9421</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10637; 22848</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2894; 12941</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8794; 18060</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3250; 12434</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10765; 25465</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4957; 15724</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11257; 22394</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1577</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6718</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5063</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8743</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7667</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5334</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6641</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>10522</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2934</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4550</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4291</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>482; 5113</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2723; 9996</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1094; 8776</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1163; 8557</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5296; 12707</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3484; 11631</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2132; 11138</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2797; 10983</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6918; 15222</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1661</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2199</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3859</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3860</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6308</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5788</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2580</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5267</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4977</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1097</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5631</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2068; 10644</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1155; 9110</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>763; 4074</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1075; 7598</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3037; 12597</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2143; 11950</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>776; 4460</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2191</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4602</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8175</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2142</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2573</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4602</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>10366</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2941</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3044</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1309</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5552</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>183; 799</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2320</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1186; 7821</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4042; 12547</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6589</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1073; 4652</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1221; 8763</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>6111; 16584</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>794; 7334</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1446; 5443</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1023</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2411</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1702</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5074</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3274</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6194</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6966</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>8605</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5590</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3687</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4169</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>760; 5608</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>432; 3873</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1314; 8503</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1079; 7613</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2315; 11857</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2002; 6423</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>3053; 11253</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1085; 8618</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4107; 14695</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3412; 8752</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4231</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1545</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>9043</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>11512</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>8171</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2955</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>13274</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>12510</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>9716</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3519</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>914; 9208</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5430</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4066</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3953</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>4229; 15607</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>6065; 19346</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>4781; 12518</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>922; 6269</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>7741; 22061</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>6520; 20334</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>5808; 15055</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>4380</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>4278</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>11135</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>7565</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>7444</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>14334</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>13025</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>11944</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>8253</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>18612</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5879</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1194; 7732</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 4106</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1820; 7881</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>5998; 16979</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>3169; 13019</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>3439; 13234</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>9605; 19415</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>7502; 20410</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>6542; 19070</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>3239; 13893</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>13660; 24232</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>9341</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>15965</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>11967</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>13269</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>38389</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>57651</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>46055</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>54228</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>47729</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>73616</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>58021</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>67497</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>4792; 15366</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>9419; 25791</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>7267; 19490</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>8975; 19445</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>28816; 48252</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>44914; 71179</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>33081; 58651</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>45665; 64538</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>36686; 59390</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>57759; 89642</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>43897; 72721</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>57186; 78795</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>